--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1744,39 +1744,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.12109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1138,6 +1138,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5587,13 +5591,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5644,7 +5648,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5668,7 +5672,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5679,7 +5683,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5708,7 +5712,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5761,7 +5765,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5785,7 +5789,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5796,11 +5800,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5822,10 +5826,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5880,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5915,7 +5919,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5938,13 +5942,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5995,7 +5999,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6004,7 +6008,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6016,10 +6020,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6030,7 +6034,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6053,13 +6057,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6110,7 +6114,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6119,7 +6123,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6131,10 +6135,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6145,7 +6149,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6171,16 +6175,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6208,10 +6212,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6229,7 +6233,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6247,10 +6251,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>302</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6290,16 +6294,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6327,10 +6331,10 @@
         <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6348,7 +6352,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6366,10 +6370,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>302</v>
@@ -6383,7 +6387,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6406,17 +6410,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6465,7 +6469,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6489,7 +6493,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6500,7 +6504,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6523,13 +6527,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6580,7 +6584,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6601,10 +6605,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6615,7 +6619,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6638,16 +6642,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6697,7 +6701,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6718,10 +6722,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6732,7 +6736,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6755,16 +6759,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6814,7 +6818,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6835,10 +6839,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6849,7 +6853,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6875,16 +6879,16 @@
         <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6933,7 +6937,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6954,10 +6958,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6968,7 +6972,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6991,13 +6995,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7048,7 +7052,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7072,7 +7076,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7083,7 +7087,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7112,7 +7116,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7165,7 +7169,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7189,7 +7193,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7200,11 +7204,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7226,10 +7230,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7284,7 +7288,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7319,7 +7323,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7345,13 +7349,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>203</v>
@@ -7403,7 +7407,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7421,7 +7425,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>210</v>
@@ -7438,7 +7442,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7461,16 +7465,16 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>274</v>
@@ -7522,7 +7526,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7540,7 +7544,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7557,7 +7561,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7583,13 +7587,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7641,7 +7645,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7676,7 +7680,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7739,28 +7743,28 @@
         <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7795,7 +7799,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7821,10 +7825,10 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>353</v>
@@ -7879,7 +7883,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -954,7 +954,10 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-casereporting/ValueSet/vs-vl-interpretation</t>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1419,12 +1422,6 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1771,7 +1768,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.12109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4751,10 +4748,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -4803,11 +4800,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4843,24 +4842,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4883,19 +4882,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -4944,7 +4943,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4965,10 +4964,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4979,7 +4978,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5005,13 +5004,13 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5040,10 +5039,10 @@
         <v>205</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5061,7 +5060,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5079,24 +5078,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5122,16 +5121,16 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5159,10 +5158,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5180,7 +5179,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5201,10 +5200,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5215,7 +5214,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5238,16 +5237,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5297,7 +5296,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5315,24 +5314,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5355,16 +5354,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5414,7 +5413,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5432,24 +5431,24 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5472,19 +5471,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5533,7 +5532,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5544,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5554,10 +5553,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5568,7 +5567,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5591,13 +5590,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5648,7 +5647,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5672,7 +5671,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5683,7 +5682,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5712,7 +5711,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5765,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5789,7 +5788,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5800,11 +5799,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5826,10 +5825,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5884,7 +5883,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5919,7 +5918,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5942,13 +5941,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5999,7 +5998,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6008,7 +6007,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6020,10 +6019,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6034,7 +6033,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6057,13 +6056,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6114,7 +6113,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6123,7 +6122,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6135,10 +6134,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6149,7 +6148,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6175,16 +6174,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6212,10 +6211,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6233,7 +6232,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6251,13 +6250,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6268,7 +6267,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6294,16 +6293,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6331,10 +6330,10 @@
         <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6352,7 +6351,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6370,13 +6369,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6387,7 +6386,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6410,17 +6409,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6469,7 +6468,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6493,7 +6492,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6504,7 +6503,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6527,13 +6526,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6584,7 +6583,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6605,10 +6604,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6619,7 +6618,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6642,16 +6641,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6701,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6722,10 +6721,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6736,7 +6735,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6759,16 +6758,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6818,7 +6817,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6839,10 +6838,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6853,7 +6852,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6876,19 +6875,19 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6937,7 +6936,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6958,10 +6957,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6972,7 +6971,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6995,13 +6994,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7052,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7076,7 +7075,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7087,7 +7086,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7116,7 +7115,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7169,7 +7168,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7193,7 +7192,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7204,11 +7203,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7230,10 +7229,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7288,7 +7287,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7323,7 +7322,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7349,13 +7348,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>203</v>
@@ -7407,7 +7406,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7425,7 +7424,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>210</v>
@@ -7442,7 +7441,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7465,16 +7464,16 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>274</v>
@@ -7526,7 +7525,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7544,7 +7543,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7561,7 +7560,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7587,13 +7586,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7645,7 +7644,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7680,7 +7679,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7743,28 +7742,28 @@
         <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7782,24 +7781,24 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7825,16 +7824,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7883,7 +7882,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7904,10 +7903,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
